--- a/数据整理/stocks/A股/深证主板/000155-川能动力.xlsx
+++ b/数据整理/stocks/A股/深证主板/000155-川能动力.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1001,7 +1002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1012,17 +1013,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1032,13 +1053,369 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>009859</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华乐享混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2787</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1919</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1912</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005343</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1482</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1398</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005344</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1278</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159962</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏中证四川国企改革ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004557</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>65.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>13</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>2.94</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000155-川能动力.xlsx
+++ b/数据整理/stocks/A股/深证主板/000155-川能动力.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1362,7 +1363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1373,17 +1374,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1393,14 +1414,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.11</v>
+          <t>005119</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2540</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1409,13 +1452,233 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>009859</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华乐享混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2485</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005343</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2433</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005344</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1958</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004557</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>64.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>13</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>2.94</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000155-川能动力.xlsx
+++ b/数据整理/stocks/A股/深证主板/000155-川能动力.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1609,7 +1610,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1620,17 +1621,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1640,14 +1661,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.96</v>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2575</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1656,14 +1699,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.11</v>
+          <t>005343</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2073</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1672,13 +1737,325 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1731</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005344</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1594</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159625</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实国证绿色电力ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159962</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏中证四川国企改革ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>13</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>2.94</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000155-川能动力.xlsx
+++ b/数据整理/stocks/A股/深证主板/000155-川能动力.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,547 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005402</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发资源优选股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>19.96</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.70</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.75</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.3473</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.92</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010235</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发资源优选股票C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.70</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.75</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4637</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.96</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>610004</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>信达澳银中小盘混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10.11</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.34</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3973</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>610006</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>信达澳银产业升级混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8.45</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.63</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3819</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>161123</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达并购重组指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.63</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.45</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2207</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005343</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>长安裕盛灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>9.34</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0355</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>159962</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华夏中证四川国企改革ETF</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.42</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0265</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005477</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>长安鑫禧灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>81.63</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>8.65</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0234</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005344</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>长安裕盛灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>9.34</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0177</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>730001</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>方正富邦创新动力混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>85.59</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0128</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005478</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>长安鑫禧灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>81.63</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>8.65</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0086</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>007046</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>方正富邦创新动力混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>85.59</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0054</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>159846</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>建信中证1000交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.31</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.94</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1055,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009859</t>
+          <t>005477</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银华乐享混合</t>
+          <t>长安鑫禧灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.87</t>
+          <t>84.15</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2787</t>
+          <t>0.2575</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1093,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005477</t>
+          <t>005343</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>长安鑫禧灵活配置混合A</t>
+          <t>长安裕盛灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.87</t>
+          <t>84.10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.27</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1919</t>
+          <t>0.2073</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1131,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161123</t>
+          <t>005478</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达并购重组指数（LOF）</t>
+          <t>长安鑫禧灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>84.15</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1912</t>
+          <t>0.1731</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1169,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005343</t>
+          <t>005344</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长安裕盛灵活配置混合A</t>
+          <t>长安裕盛灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.35</t>
+          <t>84.10</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.52</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1482</t>
+          <t>0.1594</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1207,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005478</t>
+          <t>159625</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>长安鑫禧灵活配置混合C</t>
+          <t>嘉实国证绿色电力ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.87</t>
+          <t>98.77</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.27</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1398</t>
+          <t>0.0825</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1245,36 +795,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005344</t>
+          <t>000354</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长安裕盛灵活配置混合C</t>
+          <t>长盛城镇化主题混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.35</t>
+          <t>91.48</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.52</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1278</t>
+          <t>0.0199</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1293,26 +843,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>96.69</t>
+          <t>96.21</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0158</t>
+          <t>0.0120</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1321,36 +871,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004557</t>
+          <t>001899</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>北信瑞丰鼎丰灵活配置混合</t>
+          <t>东海中证社会发展安全产业主题指数</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>65.33</t>
+          <t>91.08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0124</t>
+          <t>0.0035</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1661,36 +1211,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005477</t>
+          <t>009859</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长安鑫禧灵活配置混合A</t>
+          <t>银华乐享混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.15</t>
+          <t>94.87</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2575</t>
+          <t>0.2787</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1699,36 +1249,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005343</t>
+          <t>005477</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>长安裕盛灵活配置混合A</t>
+          <t>长安鑫禧灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.10</t>
+          <t>94.87</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>8.27</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2073</t>
+          <t>0.1919</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1737,36 +1287,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005478</t>
+          <t>161123</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长安鑫禧灵活配置混合C</t>
+          <t>易方达并购重组指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>84.15</t>
+          <t>94.52</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1731</t>
+          <t>0.1912</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1775,36 +1325,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005344</t>
+          <t>005343</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长安裕盛灵活配置混合C</t>
+          <t>长安裕盛灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>84.10</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>8.52</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1594</t>
+          <t>0.1482</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1813,36 +1363,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>159625</t>
+          <t>005478</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实国证绿色电力ETF</t>
+          <t>长安鑫禧灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>98.77</t>
+          <t>94.87</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>8.27</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0825</t>
+          <t>0.1398</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1851,36 +1401,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000354</t>
+          <t>005344</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长盛城镇化主题混合</t>
+          <t>长安裕盛灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.48</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>8.52</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0199</t>
+          <t>0.1278</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1899,26 +1449,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>96.21</t>
+          <t>96.69</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0120</t>
+          <t>0.0158</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1927,36 +1477,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001899</t>
+          <t>004557</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>东海中证社会发展安全产业主题指数</t>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.08</t>
+          <t>65.33</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0035</t>
+          <t>0.0124</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1970,96 +1520,546 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3473</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4637</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3973</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>610006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达澳银产业升级混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3819</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2207</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005343</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159962</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏中证四川国企改革ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005344</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>730001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007046</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159846</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信中证1000交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>8</v>
       </c>
-      <c r="D4" t="n">
-        <v>1.11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>13</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.94</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000155-川能动力.xlsx
+++ b/数据整理/stocks/A股/深证主板/000155-川能动力.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>0.92</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>1.11</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>13</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.94</v>
       </c>
     </row>
@@ -549,6 +566,1582 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4269</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3969</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3653</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3563</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3316</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家科创主题灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3270</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005344</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3015</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信澳中小盘混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2846</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009859</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华乐享混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2594</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2376</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2268</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000800</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商未来主题混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>72.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1507</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1488</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1137</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013495</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信澳产业优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>73.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159625</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实国证绿色电力ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015687</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华乐享混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013326</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家景气驱动混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005343</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008602</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015384</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华商改革创新股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010403</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华商景气优选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>76.85</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008491</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家周期优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003704</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>光大保德信事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>016052</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华商改革创新股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013327</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>万家景气驱动混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013496</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>信澳产业优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008492</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>万家周期优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>万家科创主题灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011987</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>39.46</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008603</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011988</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>39.46</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -908,7 +2501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1154,7 +2747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1514,7 +3107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000155-川能动力.xlsx
+++ b/数据整理/stocks/A股/深证主板/000155-川能动力.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>4.96</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D3" t="n">
-        <v>0.92</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>1.11</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>13</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.94</v>
       </c>
     </row>
@@ -566,6 +583,936 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005344</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3550</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3390</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3379</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家科创主题灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3095</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2885</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005119</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2675</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009859</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华乐享混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2438</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2070</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015687</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华乐享混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013842</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华新锐成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005343</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>016262</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013843</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华新锐成长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005186</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长安鑫兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005187</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长安鑫兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家科创主题灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011987</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>38.44</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011988</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>38.44</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2141,7 +3088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2501,7 +3448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2747,7 +3694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3107,7 +4054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
